--- a/inventory_back/device/file/result.xlsx
+++ b/inventory_back/device/file/result.xlsx
@@ -2714,33 +2714,83 @@
       <c r="W3" s="171" t="n"/>
     </row>
     <row r="4" ht="15.75" customFormat="1" customHeight="1" s="27" thickBot="1">
-      <c r="A4" s="136" t="n"/>
+      <c r="A4" s="136" t="n">
+        <v>1</v>
+      </c>
       <c r="B4" s="171" t="n"/>
-      <c r="C4" s="136" t="n"/>
+      <c r="C4" s="136" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="D4" s="159" t="n"/>
       <c r="E4" s="171" t="n"/>
-      <c r="F4" s="136" t="n"/>
-      <c r="G4" s="137" t="n"/>
+      <c r="F4" s="136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H4" s="124" t="n"/>
-      <c r="I4" s="137" t="n"/>
-      <c r="J4" s="136" t="n"/>
+      <c r="I4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K4" s="171" t="n"/>
-      <c r="L4" s="137" t="n"/>
+      <c r="L4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M4" s="124" t="n"/>
-      <c r="N4" s="137" t="n"/>
-      <c r="O4" s="137" t="n"/>
+      <c r="N4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="P4" s="124" t="n"/>
-      <c r="Q4" s="137" t="n"/>
-      <c r="R4" s="137" t="n"/>
+      <c r="Q4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S4" s="124" t="n"/>
-      <c r="T4" s="136" t="n"/>
-      <c r="U4" s="136" t="n"/>
+      <c r="T4" s="136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U4" s="136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="V4" s="159" t="n"/>
       <c r="W4" s="171" t="n"/>
     </row>
     <row r="5" ht="15.75" customFormat="1" customHeight="1" s="27">
       <c r="A5" s="104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="171" t="n"/>
       <c r="C5" s="104" t="inlineStr">
@@ -2752,139 +2802,89 @@
       <c r="E5" s="171" t="n"/>
       <c r="F5" s="102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G5" s="129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" s="175" t="n"/>
       <c r="I5" s="31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" s="103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K5" s="171" t="n"/>
       <c r="L5" s="131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M5" s="175" t="n"/>
       <c r="N5" s="130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O5" s="130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P5" s="175" t="n"/>
       <c r="Q5" s="132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R5" s="132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S5" s="175" t="n"/>
       <c r="T5" s="98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="U5" s="114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" s="159" t="n"/>
       <c r="W5" s="171" t="n"/>
     </row>
     <row r="6" ht="15.75" customFormat="1" customHeight="1" s="27">
-      <c r="A6" s="104" t="n">
-        <v>1</v>
-      </c>
+      <c r="A6" s="104" t="n"/>
       <c r="B6" s="171" t="n"/>
-      <c r="C6" s="104" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="C6" s="104" t="n"/>
       <c r="D6" s="159" t="n"/>
       <c r="E6" s="171" t="n"/>
-      <c r="F6" s="102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" s="116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F6" s="102" t="n"/>
+      <c r="G6" s="116" t="n"/>
       <c r="H6" s="171" t="n"/>
-      <c r="I6" s="34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" s="103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I6" s="34" t="n"/>
+      <c r="J6" s="103" t="n"/>
       <c r="K6" s="171" t="n"/>
-      <c r="L6" s="117" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L6" s="117" t="n"/>
       <c r="M6" s="171" t="n"/>
-      <c r="N6" s="104" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O6" s="104" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="N6" s="104" t="n"/>
+      <c r="O6" s="104" t="n"/>
       <c r="P6" s="171" t="n"/>
-      <c r="Q6" s="114" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R6" s="114" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="Q6" s="114" t="n"/>
+      <c r="R6" s="114" t="n"/>
       <c r="S6" s="171" t="n"/>
-      <c r="T6" s="98" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="U6" s="114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="T6" s="98" t="n"/>
+      <c r="U6" s="114" t="n"/>
       <c r="V6" s="159" t="n"/>
       <c r="W6" s="171" t="n"/>
     </row>

--- a/inventory_back/device/file/result.xlsx
+++ b/inventory_back/device/file/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="стр1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="стр2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="стр3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="стр1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="стр2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="стр3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'стр1'!$A$1:$V$33</definedName>
@@ -2720,53 +2720,53 @@
       <c r="B4" s="171" t="n"/>
       <c r="C4" s="136" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>10-9</t>
         </is>
       </c>
       <c r="D4" s="159" t="n"/>
       <c r="E4" s="171" t="n"/>
       <c r="F4" s="136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Турбоблок</t>
         </is>
       </c>
       <c r="G4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H4" s="124" t="n"/>
       <c r="I4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" s="136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" s="171" t="n"/>
       <c r="L4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="M4" s="124" t="n"/>
       <c r="N4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>ИН-231467</t>
         </is>
       </c>
       <c r="O4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6889</t>
         </is>
       </c>
       <c r="P4" s="124" t="n"/>
       <c r="Q4" s="137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="137" t="inlineStr">
@@ -2777,12 +2777,12 @@
       <c r="S4" s="124" t="n"/>
       <c r="T4" s="136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U4" s="136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="V4" s="159" t="n"/>
